--- a/data/CARBURANT/2024/RAPPORT-02-2024.xlsx
+++ b/data/CARBURANT/2024/RAPPORT-02-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/SOLUTIONDEV/projet_data/streamlit_test/data/CARBURANT/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D494F944-FB05-D949-8E05-B9B746E6276D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC908ADD-40E7-FC47-8EA3-ECAF653B6E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="800" windowWidth="21380" windowHeight="15480" xr2:uid="{14694630-C95D-074E-89CF-4B6F1BD72D95}"/>
   </bookViews>
@@ -3915,8 +3915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139B9277-A2BE-194A-9F50-C3EFE126BFBD}">
   <dimension ref="A1:J616"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A616"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23821,24 +23821,24 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C465:C616 F465:H616">
-    <cfRule type="expression" dxfId="14" priority="25">
-      <formula>#REF!="RAJOUT"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:D2 F2:I184 C7:D7 C8:C13 C14:D16 C17 C18:D20 C21 C22:D23 C24:C25 C26:D26 C27:C28 C29:D29 C30 C31:D33 C34 C35:D36 C37:C38 C39:D39 C40 C41:D42 C43 C44:D45 C46:C48 C49:D49 C50:C51 C52:D52 C53 C54:D54 C55 C56:D57 C58 C59:D59 C60:C61 C62:D62 C63:C65 C66:D66 C67 C68:D69 C70:C71 C72:D72 C73 C74:D74 C75 C76:D76 C77:C78 C79:D79 C80:C82 C83:D83 C84 C85:D85 C86:C87 C88:D90 C91:C96 C97:D97 C98:C99 C100:D100 C101:C107 C108:D108 C109 C110:D113 C114:C115 C116:D116 C117 C118:D118 C119 C120:D120 C121:C122 C123:D123 C124 C125:D127 C128:C129 C130:D131 C132:C134 C135:D135 C136:C140 C141:D143 C144 C145:D145 C146:C147 C148:D150 C151:C154 C155:D155 C156 C157:D158 C159:C160 C161:D161 C162:C163 C164:D164 C165 C166:D166 C167:C168 C169:D169 C170:C171 C172:D172 C173:C175 C176:D178 C179:C180 C181:D182 C183:C185 G185:I185 C186:D186 F186:I218 C187:C189 C190:D191 C192:C193 C194:D196 C197:C202 C203:D204 C205:C207 C208:D208 C209:C212 C213:D213 C214 C215:D215 C216:C219 G219:I219 C220:D221 F220:I363 C222 C223:D223 C224 C225:D225 C226:C230 C231:D231 C232 C233:D233 C234:C236 C237:D237 C238 C239:D240 C241:C243 C244:D244 C245:C247 C248:D248 C249 C250:D253 C254:C255 C256:D257 C258 C259:D259 C260 C261:D261 C262:C268 C269:D271 C272 C273:D275 C276 C277:D277 C278:C281 C282:D283 C284:C285 C286:D286 C287 C288:D288 C289:C290 C291:D292 C293:C297 C298:D299 C300 C301:D301 C302:C304 C305:D305 C306:C308 C309:D309 C310:C311 C312:D314 C315:C316 C317:D319 C320:C322 C323:D323 C324:C328 C329:D331 C332:C338 C339:D339 C340:C344 C345:D347 C348 C349:D350 C351:C354 C355:D355 C356:C357 C358:D358 C359:C360 C361:D362 C363:C364 G364:I364 C365:D366 F365:I464 C367 C368:D369 C370:C371 C372:D372 C373:C375 C376:D376 C377 C378:D378 C379 C380:D382 C383 C384:D384 C385:C388 C389:D389 C390 C391:D393 C394 C395:D395 C396:C397 C398:D399 C400:C402 C403:D407 C408 C409:D410 C411:C415 C416:D416 C417:C420 C421:D424 C425:C428 C429:D429 C430 C431:D432 C433 C434:D434 C435:C436 C437:D437 C438 C439:D439 C440:C442 C443:D445 C446:C451 C452:D453 C454 C455:D457 C458:C460 C461:D461 C462:C464 I465:I616 C4:C6 C3:D3 B3:B616">
-    <cfRule type="expression" dxfId="13" priority="31">
+  <conditionalFormatting sqref="B2:D2 F2:I184 C3:D3 B3:B616 C4:C6 C7:D7 C8:C13 C14:D16 C17 C18:D20 C21 C22:D23 C24:C25 C26:D26 C27:C28 C29:D29 C30 C31:D33 C34 C35:D36 C37:C38 C39:D39 C40 C41:D42 C43 C44:D45 C46:C48 C49:D49 C50:C51 C52:D52 C53 C54:D54 C55 C56:D57 C58 C59:D59 C60:C61 C62:D62 C63:C65 C66:D66 C67 C68:D69 C70:C71 C72:D72 C73 C74:D74 C75 C76:D76 C77:C78 C79:D79 C80:C82 C83:D83 C84 C85:D85 C86:C87 C88:D90 C91:C96 C97:D97 C98:C99 C100:D100 C101:C107 C108:D108 C109 C110:D113 C114:C115 C116:D116 C117 C118:D118 C119 C120:D120 C121:C122 C123:D123 C124 C125:D127 C128:C129 C130:D131 C132:C134 C135:D135 C136:C140 C141:D143 C144 C145:D145 C146:C147 C148:D150 C151:C154 C155:D155 C156 C157:D158 C159:C160 C161:D161 C162:C163 C164:D164 C165 C166:D166 C167:C168 C169:D169 C170:C171 C172:D172 C173:C175 C176:D178 C179:C180 C181:D182 C183:C185 G185:I185 C186:D186 F186:I218 C187:C189 C190:D191 C192:C193 C194:D196 C197:C202 C203:D204 C205:C207 C208:D208 C209:C212 C213:D213 C214 C215:D215 C216:C219 G219:I219 C220:D221 F220:I363 C222 C223:D223 C224 C225:D225 C226:C230 C231:D231 C232 C233:D233 C234:C236 C237:D237 C238 C239:D240 C241:C243 C244:D244 C245:C247 C248:D248 C249 C250:D253 C254:C255 C256:D257 C258 C259:D259 C260 C261:D261 C262:C268 C269:D271 C272 C273:D275 C276 C277:D277 C278:C281 C282:D283 C284:C285 C286:D286 C287 C288:D288 C289:C290 C291:D292 C293:C297 C298:D299 C300 C301:D301 C302:C304 C305:D305 C306:C308 C309:D309 C310:C311 C312:D314 C315:C316 C317:D319 C320:C322 C323:D323 C324:C328 C329:D331 C332:C338 C339:D339 C340:C344 C345:D347 C348 C349:D350 C351:C354 C355:D355 C356:C357 C358:D358 C359:C360 C361:D362 C363:C364 G364:I364 C365:D366 F365:I464 C367 C368:D369 C370:C371 C372:D372 C373:C375 C376:D376 C377 C378:D378 C379 C380:D382 C383 C384:D384 C385:C388 C389:D389 C390 C391:D393 C394 C395:D395 C398:D399 C400:C402 C403:D407 C408 C409:D410 C411:C415 C416:D416 C417:C420 C421:D424 C425:C428 C429:D429 C430 C431:D432 C433 C434:D434 C435:C436 C437:D437 C438 C439:D439 C440:C442 C443:D445 C446:C451 C452:D453 C454 C455:D457 C458:C460 C461:D461 C462:C464 I465:I616">
+    <cfRule type="expression" dxfId="14" priority="31">
       <formula>$I2="RAJOUT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="12" priority="30">
+    <cfRule type="expression" dxfId="13" priority="30">
       <formula>$I26="RAJOUT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C398">
-    <cfRule type="expression" dxfId="11" priority="29">
-      <formula>$I398="RAJOUT"</formula>
+  <conditionalFormatting sqref="C396:C398">
+    <cfRule type="expression" dxfId="12" priority="29">
+      <formula>$I396="RAJOUT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C465:C616 F465:H616">
+    <cfRule type="expression" dxfId="11" priority="25">
+      <formula>#REF!="RAJOUT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6 D8:D13 D17 D21 D24:D25 D27:D28 D30 D34 D37:D38 D40 D43 D46:D48 D50:D51 D53 D55 D58 D60:D61 D63:D65 D67 D70:D71 D73 D75 D77:D78 D80:D82 D84 D86:D87 D91:D96 D98:D99 D101:D107 D109 D114:D115 D117 D119 D121:D122 D124 D128:D129 D132:D134 D136:D140 D144 D146:D147 D151:D154 D156 D159:D160 D162:D163 D165 D167:D168 D170:D171 D173:D175 D179:D180 D183:D185 D187:D189 D192:D193 D197:D202 D205:D207 D209:D212 D214 D216:D219 D222 D224 D226:D230 D232 D234:D236 D238 D241:D243 D245:D247 D249 D254:D255 D258 D260 D262:D268 D272 D276 D278:D281 D284:D285 D287 D289:D290 D293:D297 D300 D302:D304 D306:D308 D310:D311 D315:D316 D320:D322 D324:D328 D332:D338 D340:D344 D348 D351:D354 D356:D357 D359:D360 D363:D364 D367 D370:D371 D373:D375 D377 D379 D383 D385:D388 D390 D394 D396:D397 D400:D402 D408 D411:D415 D417:D420 D425:D428 D430 D433 D435:D436 D438 D440:D442 D446:D451 D454 D458:D460 D462:D616">
